--- a/Small_data.xlsx
+++ b/Small_data.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simba/Documents/OneDrive - USC Marshall School of Business/Study/Python/jupyter/DSO570/CourseSchedulingOptimization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{13100ECF-C083-324A-9696-591D136D30BB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{950283E7-51C2-364C-9E54-E7D9EB3071FD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="13780" xr2:uid="{A2C111AE-A2D9-6447-8573-9612D113EED0}"/>
+    <workbookView xWindow="480" yWindow="860" windowWidth="25040" windowHeight="13780" activeTab="1" xr2:uid="{A2C111AE-A2D9-6447-8573-9612D113EED0}"/>
   </bookViews>
   <sheets>
     <sheet name="Course_Enrollment" sheetId="1" r:id="rId1"/>
     <sheet name="Room_Capacity" sheetId="2" r:id="rId2"/>
     <sheet name="Student_Course_Selection" sheetId="3" r:id="rId3"/>
+    <sheet name="Room_Capacity (2)" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Course_Enrollment!$A$1:$Z$34</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13991" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14006" uniqueCount="424">
   <si>
     <t>Course</t>
   </si>
@@ -1712,8 +1713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92D7A9A5-7935-A248-A726-D6B8999D9E1E}">
   <dimension ref="A1:Z181"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4574,10 +4575,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53400883-BBF9-5746-B5C0-AE0C34CB9850}">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4592,23 +4593,23 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" s="6">
-        <v>16</v>
+        <v>27</v>
+      </c>
+      <c r="B2" s="7">
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="B3" s="6">
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="6" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="B4" s="6">
         <v>36</v>
@@ -4616,23 +4617,23 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="B5" s="6">
-        <v>39</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="6" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="B6" s="6">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="6" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="B7" s="6">
         <v>16</v>
@@ -4640,314 +4641,34 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="6" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="B8" s="6">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B9" s="6">
-        <v>20</v>
+        <v>101</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="7">
-        <v>42</v>
+        <v>103</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="6">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B13" s="6">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B14" s="6">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" s="6">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B16" s="6">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B20" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B39" s="6">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B40" s="6">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B41" s="6">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42" s="6">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B43" s="6">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B44" s="6">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B45" s="6">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B46" s="6">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -71550,4 +71271,385 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E4C35E3-A0B5-C849-BC75-316C4AF1609C}">
+  <dimension ref="A1:B46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="6">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="7">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="6">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="6">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="6">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" s="6">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="6">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" s="6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" s="6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" s="6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" s="6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" s="6">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" s="6">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>